--- a/eu_basynthec/sourceTest/examples/Transcriptomics-Example.xlsx
+++ b/eu_basynthec/sourceTest/examples/Transcriptomics-Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="4360" windowWidth="23400" windowHeight="16220" tabRatio="500"/>
+    <workbookView xWindow="14880" yWindow="3160" windowWidth="24720" windowHeight="16740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+  <si>
+    <t>yaaK</t>
+  </si>
+  <si>
+    <t>BSU00210</t>
+  </si>
+  <si>
+    <t>recR</t>
+  </si>
+  <si>
+    <t>BSU00220</t>
+  </si>
+  <si>
+    <t>yaaL</t>
+  </si>
+  <si>
+    <t>BSU00230</t>
+  </si>
+  <si>
+    <t>bofA</t>
+  </si>
+  <si>
+    <t>BSU00240</t>
+  </si>
+  <si>
+    <t>csfB</t>
+  </si>
+  <si>
+    <t>BSU00250</t>
+  </si>
+  <si>
+    <t>xpaC</t>
+  </si>
+  <si>
+    <t>BSU00260</t>
+  </si>
+  <si>
+    <t>yaaN</t>
+  </si>
+  <si>
+    <t>BSU00270</t>
+  </si>
+  <si>
+    <t>yaaO</t>
+  </si>
+  <si>
+    <t>BSU00280</t>
+  </si>
+  <si>
+    <t>tmk</t>
+  </si>
+  <si>
+    <t>MGP253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGP776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGP253-1 66687802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGP776-2 66730002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>One of CE, ES, ME, CY, or NC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>strain1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Property</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BSU23010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,24 +165,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>One of Lin, Log2, Log10, or Ln</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of mM, uM, Percent, RatioT1, RatioCs, or AU, Dimensionless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Log2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>One of Lin, Log2, Log10, or Ln</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of mM, uM, Percent, RatioT1, RatioCs, or AU, Dimensionless</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSU55020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GeneLocus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>MGP100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/TEST/TEST/TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header Format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRAIN-BIOREP HYBRID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Must be STRAIN-BIOREP HYBRID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Data Row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first row with data — the one that contains the column headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Data Col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first column with data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>Biological replicate</t>
+  </si>
+  <si>
+    <t>Technical replicate</t>
+  </si>
+  <si>
+    <t>hybridization number</t>
+  </si>
+  <si>
+    <t>Locustag</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ProbesNumber</t>
+  </si>
+  <si>
+    <t>BSU00010</t>
+  </si>
+  <si>
+    <t>dnaA</t>
+  </si>
+  <si>
+    <t>BSU00020</t>
+  </si>
+  <si>
+    <t>dnaN</t>
+  </si>
+  <si>
+    <t>BSU00030</t>
+  </si>
+  <si>
+    <t>yaaA</t>
+  </si>
+  <si>
+    <t>BSU00040</t>
+  </si>
+  <si>
+    <t>recF</t>
+  </si>
+  <si>
+    <t>BSU00050</t>
+  </si>
+  <si>
+    <t>yaaB</t>
+  </si>
+  <si>
+    <t>BSU00060</t>
+  </si>
+  <si>
+    <t>gyrB</t>
+  </si>
+  <si>
+    <t>BSU00070</t>
+  </si>
+  <si>
+    <t>gyrA</t>
+  </si>
+  <si>
+    <t>BSU00090</t>
+  </si>
+  <si>
+    <t>guaB</t>
+  </si>
+  <si>
+    <t>BSU00100</t>
+  </si>
+  <si>
+    <t>dacA</t>
+  </si>
+  <si>
+    <t>BSU00110</t>
+  </si>
+  <si>
+    <t>pdxS</t>
+  </si>
+  <si>
+    <t>BSU00120</t>
+  </si>
+  <si>
+    <t>pdxT</t>
+  </si>
+  <si>
+    <t>BSU_misc_RNA_1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>BSU00130</t>
+  </si>
+  <si>
+    <t>serS</t>
+  </si>
+  <si>
+    <t>BSU00180</t>
+  </si>
+  <si>
+    <t>tadA</t>
+  </si>
+  <si>
+    <t>BSU_misc_RNA_2</t>
+  </si>
+  <si>
+    <t>scr</t>
+  </si>
+  <si>
+    <t>BSU00190</t>
+  </si>
+  <si>
+    <t>dnaX</t>
+  </si>
+  <si>
+    <t>BSU00200</t>
   </si>
 </sst>
 </file>
@@ -165,12 +376,30 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -203,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -213,6 +442,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,107 +779,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -658,125 +929,516 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
+        <v>66687802</v>
+      </c>
+      <c r="E4" s="11">
+        <v>66730002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="12">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>13.795299999999999</v>
+      </c>
+      <c r="E6">
+        <v>13.5517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="12">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>13.5907</v>
+      </c>
+      <c r="E7">
+        <v>13.3277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="12">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>13.8489</v>
+      </c>
+      <c r="E8">
+        <v>13.630599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="12">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>14.356400000000001</v>
+      </c>
+      <c r="E9">
+        <v>14.1073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="12">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>14.523899999999999</v>
+      </c>
+      <c r="E10">
+        <v>14.199199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="12">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>14.3293</v>
+      </c>
+      <c r="E11">
+        <v>13.933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="12">
+        <v>110</v>
+      </c>
+      <c r="D12">
+        <v>14.481</v>
+      </c>
+      <c r="E12">
+        <v>14.1348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="12">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <v>15.474</v>
+      </c>
+      <c r="E13">
+        <v>15.2813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="12">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>14.433199999999999</v>
+      </c>
+      <c r="E14">
+        <v>14.1945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="12">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>15.2669</v>
+      </c>
+      <c r="E15">
+        <v>14.9582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="12">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>15.3344</v>
+      </c>
+      <c r="E16">
+        <v>15.112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="12">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>15.4497</v>
+      </c>
+      <c r="E17">
+        <v>15.2485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="12">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>13.660399999999999</v>
+      </c>
+      <c r="E18">
+        <v>13.538500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="12">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>9.8208000000000002</v>
+      </c>
+      <c r="E19">
+        <v>9.9710000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="12">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>13.6614</v>
+      </c>
+      <c r="E20">
+        <v>14.093299999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="12">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>13.464</v>
+      </c>
+      <c r="E21">
+        <v>13.1213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>14.610200000000001</v>
+      </c>
+      <c r="E22">
+        <v>14.4169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="12">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>13.528499999999999</v>
+      </c>
+      <c r="E23">
+        <v>13.2043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="12">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>13.1007</v>
+      </c>
+      <c r="E24">
+        <v>12.886200000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="12">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>11.854699999999999</v>
+      </c>
+      <c r="E25">
+        <v>11.6761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="12">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>10.862299999999999</v>
+      </c>
+      <c r="E26">
+        <v>11.139699999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="12">
         <v>25</v>
       </c>
-      <c r="B1">
-        <v>-420</v>
-      </c>
-      <c r="C1">
-        <v>300</v>
-      </c>
-      <c r="D1">
-        <v>600</v>
-      </c>
-      <c r="E1">
-        <v>900</v>
-      </c>
-      <c r="F1">
-        <v>1500</v>
-      </c>
-      <c r="G1">
-        <v>2700</v>
-      </c>
-      <c r="H1">
-        <v>3600</v>
-      </c>
-      <c r="I1">
-        <v>5400</v>
-      </c>
-      <c r="J1">
-        <v>7200</v>
-      </c>
-      <c r="K1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>2.4115000000000002</v>
-      </c>
-      <c r="C2">
-        <v>2.2953000000000001</v>
-      </c>
-      <c r="D2">
-        <v>2.2830499999999998</v>
-      </c>
-      <c r="E2">
-        <v>2.3196500000000002</v>
-      </c>
-      <c r="F2">
-        <v>2.3934000000000002</v>
-      </c>
-      <c r="G2">
-        <v>2.5093999999999999</v>
-      </c>
-      <c r="H2">
-        <v>2.5929500000000001</v>
-      </c>
-      <c r="I2">
-        <v>2.9629500000000002</v>
-      </c>
-      <c r="J2">
-        <v>2.8103500000000001</v>
-      </c>
-      <c r="K2">
-        <v>2.9113000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>1.4303999999999999</v>
-      </c>
-      <c r="C3">
-        <v>1.1722999999999999</v>
-      </c>
-      <c r="D3">
-        <v>1.3669500000000001</v>
-      </c>
-      <c r="E3">
-        <v>1.25875</v>
-      </c>
-      <c r="F3">
-        <v>1.3962000000000001</v>
-      </c>
-      <c r="G3">
-        <v>1.5873999999999999</v>
-      </c>
-      <c r="H3">
-        <v>1.60965</v>
-      </c>
-      <c r="I3">
-        <v>2.0164499999999999</v>
-      </c>
-      <c r="J3">
-        <v>2.2641499999999999</v>
-      </c>
-      <c r="K3">
-        <v>2.0724</v>
+      <c r="D27">
+        <v>11.6694</v>
+      </c>
+      <c r="E27">
+        <v>11.429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="12">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>11.7669</v>
+      </c>
+      <c r="E28">
+        <v>11.4658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="12">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>12.2675</v>
+      </c>
+      <c r="E29">
+        <v>11.874499999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="12">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>12.557399999999999</v>
+      </c>
+      <c r="E30">
+        <v>12.1608</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/eu_basynthec/sourceTest/examples/Transcriptomics-Example.xlsx
+++ b/eu_basynthec/sourceTest/examples/Transcriptomics-Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="3160" windowWidth="24720" windowHeight="16740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="34320" windowHeight="22740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>yaaK</t>
   </si>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Value Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The Strain Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>One of Value, Mean, Median, Std, Var, Error, or Iqr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,10 +166,6 @@
   </si>
   <si>
     <t>Log2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGP100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -779,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -808,43 +796,43 @@
         <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -852,10 +840,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -863,54 +851,43 @@
         <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" s="9">
-        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -947,7 +924,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11" t="s">
@@ -960,7 +937,7 @@
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11">
@@ -973,7 +950,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11">
@@ -986,7 +963,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11">
@@ -998,13 +975,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
@@ -1015,10 +992,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="12">
         <v>58</v>
@@ -1032,10 +1009,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="12">
         <v>49</v>
@@ -1049,10 +1026,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="12">
         <v>7</v>
@@ -1066,10 +1043,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="12">
         <v>48</v>
@@ -1083,10 +1060,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="12">
         <v>8</v>
@@ -1100,10 +1077,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C11" s="12">
         <v>84</v>
@@ -1117,10 +1094,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="12">
         <v>110</v>
@@ -1134,10 +1111,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="12">
         <v>64</v>
@@ -1151,10 +1128,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="12">
         <v>59</v>
@@ -1168,10 +1145,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="12">
         <v>38</v>
@@ -1185,10 +1162,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" s="12">
         <v>24</v>
@@ -1202,10 +1179,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" s="12">
         <v>8</v>
@@ -1219,10 +1196,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" s="12">
         <v>55</v>
@@ -1236,10 +1213,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" s="12">
         <v>19</v>
@@ -1253,10 +1230,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="12">
         <v>3</v>
@@ -1270,10 +1247,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C21" s="12">
         <v>74</v>
@@ -1287,7 +1264,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>0</v>

--- a/eu_basynthec/sourceTest/examples/Transcriptomics-Example.xlsx
+++ b/eu_basynthec/sourceTest/examples/Transcriptomics-Example.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21105"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="34320" windowHeight="22740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="openbis-metadata" sheetId="1" r:id="rId1"/>
     <sheet name="openbis-data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -73,14 +73,6 @@
     <t>tmk</t>
   </si>
   <si>
-    <t>MGP253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGP776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MGP253-1 66687802</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,13 +315,19 @@
   </si>
   <si>
     <t>BSU00200</t>
+  </si>
+  <si>
+    <t>JJS-MGP253</t>
+  </si>
+  <si>
+    <t>JJS-MGP776</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -400,7 +398,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -412,7 +410,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,7 +441,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -766,14 +764,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="4" customWidth="1"/>
@@ -782,112 +780,112 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20">
       <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="9">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -897,7 +895,7 @@
     <brk id="3" max="1048575" man="1"/>
   </colBreaks>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -905,14 +903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -924,20 +922,20 @@
     <row r="1" spans="1:5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11">
@@ -950,7 +948,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11">
@@ -963,7 +961,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11">
@@ -975,27 +973,27 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="12">
         <v>58</v>
@@ -1009,10 +1007,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="12">
         <v>49</v>
@@ -1026,10 +1024,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="12">
         <v>7</v>
@@ -1043,10 +1041,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="12">
         <v>48</v>
@@ -1060,10 +1058,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="12">
         <v>8</v>
@@ -1077,10 +1075,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="12">
         <v>84</v>
@@ -1094,10 +1092,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="12">
         <v>110</v>
@@ -1111,10 +1109,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="12">
         <v>64</v>
@@ -1128,10 +1126,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="12">
         <v>59</v>
@@ -1145,10 +1143,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="12">
         <v>38</v>
@@ -1162,10 +1160,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="12">
         <v>24</v>
@@ -1179,10 +1177,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="12">
         <v>8</v>
@@ -1196,10 +1194,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="12">
         <v>55</v>
@@ -1213,10 +1211,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="12">
         <v>19</v>
@@ -1230,10 +1228,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="12">
         <v>3</v>
@@ -1247,10 +1245,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="12">
         <v>74</v>
@@ -1264,7 +1262,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>0</v>
@@ -1419,7 +1417,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/eu_basynthec/sourceTest/examples/Transcriptomics-Example.xlsx
+++ b/eu_basynthec/sourceTest/examples/Transcriptomics-Example.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21105"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
@@ -73,14 +73,6 @@
     <t>tmk</t>
   </si>
   <si>
-    <t>MGP253-1 66687802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MGP776-2 66730002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>One of CE, ES, ME, CY, or NC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +313,12 @@
   </si>
   <si>
     <t>JJS-MGP776</t>
+  </si>
+  <si>
+    <t>JJS-MGP253-1 66687802</t>
+  </si>
+  <si>
+    <t>JJS-MGP776-2 66730002</t>
   </si>
 </sst>
 </file>
@@ -780,112 +778,112 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20">
       <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +905,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -922,20 +920,20 @@
     <row r="1" spans="1:5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11">
@@ -948,7 +946,7 @@
     <row r="3" spans="1:5">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11">
@@ -961,7 +959,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11">
@@ -973,27 +971,27 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="12">
         <v>58</v>
@@ -1007,10 +1005,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="12">
         <v>49</v>
@@ -1024,10 +1022,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="12">
         <v>7</v>
@@ -1041,10 +1039,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="12">
         <v>48</v>
@@ -1058,10 +1056,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="12">
         <v>8</v>
@@ -1075,10 +1073,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="12">
         <v>84</v>
@@ -1092,10 +1090,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="12">
         <v>110</v>
@@ -1109,10 +1107,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="12">
         <v>64</v>
@@ -1126,10 +1124,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="12">
         <v>59</v>
@@ -1143,10 +1141,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="12">
         <v>38</v>
@@ -1160,10 +1158,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="12">
         <v>24</v>
@@ -1177,10 +1175,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="12">
         <v>8</v>
@@ -1194,10 +1192,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="12">
         <v>55</v>
@@ -1211,10 +1209,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="12">
         <v>19</v>
@@ -1228,10 +1226,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="12">
         <v>3</v>
@@ -1245,10 +1243,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="12">
         <v>74</v>
@@ -1262,7 +1260,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>0</v>
